--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59485.02508603254</v>
+        <v>11629228.68688891</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59485.02508603254</v>
+        <v>11629228.68688891</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9231.490149211029</v>
+        <v>1214652.509404748</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9231.490149211029</v>
+        <v>1214652.509404748</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343508175.261472</v>
+        <v>55597369.38144991</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12207.71553803186</v>
+        <v>1386294.07581347</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22602.53125169966</v>
+        <v>2488248.98610449</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32997.34696536747</v>
+        <v>3590203.896395511</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43593.50685160197</v>
+        <v>4618018.385882542</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54161.738619403</v>
+        <v>5735172.189530087</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64586.47315416866</v>
+        <v>6837127.099821105</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75010.96622118607</v>
+        <v>7939082.010112121</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85435.81220260479</v>
+        <v>9041036.920403138</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96042.73564063672</v>
+        <v>10068842.14465938</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106600.2708149184</v>
+        <v>11185995.94830692</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117025.0053496842</v>
+        <v>12287950.85859794</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127449.7398844494</v>
+        <v>13389905.76888897</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137874.4744192151</v>
+        <v>14491860.67918</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148503.9716127928</v>
+        <v>15519665.90343625</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160392.9790339081</v>
+        <v>16324663.69515979</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>335</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>282</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
